--- a/assets/generated/model3/DeliverySequence.xlsx
+++ b/assets/generated/model3/DeliverySequence.xlsx
@@ -357,13 +357,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1">
         <v>0</v>
       </c>
@@ -377,7 +377,7 @@
         <v>0</v>
       </c>
       <c r="E1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1">
         <v>0</v>
@@ -388,8 +388,14 @@
       <c r="H1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>0</v>
       </c>
@@ -414,8 +420,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>0</v>
       </c>
@@ -440,8 +452,14 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>0</v>
       </c>
@@ -466,8 +484,14 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>0</v>
       </c>
@@ -492,8 +516,14 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>0</v>
       </c>
@@ -518,8 +548,14 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>0</v>
       </c>
@@ -544,8 +580,14 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>0</v>
       </c>
@@ -568,6 +610,76 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
     </row>
@@ -578,13 +690,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1">
         <v>0</v>
       </c>
@@ -609,8 +721,14 @@
       <c r="H1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>0</v>
       </c>
@@ -635,8 +753,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>0</v>
       </c>
@@ -661,8 +785,14 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>0</v>
       </c>
@@ -687,8 +817,14 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>0</v>
       </c>
@@ -713,8 +849,14 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>0</v>
       </c>
@@ -739,8 +881,14 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>0</v>
       </c>
@@ -765,8 +913,14 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>0</v>
       </c>
@@ -789,6 +943,76 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
     </row>
@@ -799,13 +1023,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1">
         <v>0</v>
       </c>
@@ -830,8 +1054,14 @@
       <c r="H1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>0</v>
       </c>
@@ -856,8 +1086,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>0</v>
       </c>
@@ -882,8 +1118,14 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>0</v>
       </c>
@@ -908,8 +1150,14 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>0</v>
       </c>
@@ -934,8 +1182,14 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>0</v>
       </c>
@@ -960,8 +1214,14 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>0</v>
       </c>
@@ -986,8 +1246,14 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1010,6 +1276,76 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
     </row>
@@ -1020,13 +1356,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1051,8 +1387,14 @@
       <c r="H1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1077,8 +1419,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1103,8 +1451,14 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1129,8 +1483,14 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1155,8 +1515,14 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1181,8 +1547,14 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1207,8 +1579,14 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1231,6 +1609,76 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
     </row>
@@ -1241,13 +1689,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1264,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="F1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1">
         <v>0</v>
@@ -1272,8 +1720,14 @@
       <c r="H1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1298,8 +1752,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1324,8 +1784,14 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1350,8 +1816,14 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1376,8 +1848,14 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1402,8 +1880,14 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1428,8 +1912,14 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1452,6 +1942,76 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
     </row>
@@ -1462,13 +2022,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1476,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -1493,8 +2053,14 @@
       <c r="H1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1519,8 +2085,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1545,8 +2117,14 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1571,8 +2149,14 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1597,8 +2181,14 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1623,8 +2213,14 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1649,8 +2245,14 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1673,6 +2275,76 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
     </row>
@@ -1683,13 +2355,13 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1709,13 +2381,19 @@
         <v>0</v>
       </c>
       <c r="G1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1740,8 +2418,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1766,8 +2450,14 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1792,8 +2482,14 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1818,8 +2514,14 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1844,8 +2546,14 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1870,8 +2578,14 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1894,6 +2608,76 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
     </row>
@@ -1904,13 +2688,13 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1927,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="F1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1">
         <v>0</v>
@@ -1935,8 +2719,14 @@
       <c r="H1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1961,8 +2751,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1987,8 +2783,14 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2013,8 +2815,14 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2039,8 +2847,14 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2065,8 +2879,14 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2091,8 +2911,14 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2115,6 +2941,76 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
     </row>
@@ -2125,18 +3021,18 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1">
         <v>0</v>
@@ -2154,188 +3050,300 @@
         <v>0</v>
       </c>
       <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
     </row>
@@ -2346,13 +3354,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1">
         <v>0</v>
       </c>
@@ -2360,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -2377,8 +3385,14 @@
       <c r="H1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2403,8 +3417,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2429,8 +3449,14 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2455,8 +3481,14 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2481,8 +3513,14 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2507,8 +3545,14 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2533,8 +3577,14 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2557,6 +3607,76 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
     </row>
@@ -2567,13 +3687,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1">
         <v>0</v>
       </c>
@@ -2598,8 +3718,14 @@
       <c r="H1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2624,8 +3750,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2650,8 +3782,14 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2676,8 +3814,14 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2702,8 +3846,14 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2728,8 +3878,14 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2754,8 +3910,14 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2778,6 +3940,76 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
     </row>
@@ -2788,18 +4020,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1">
         <v>0</v>
@@ -2819,8 +4051,14 @@
       <c r="H1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2845,8 +4083,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2871,8 +4115,14 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2897,8 +4147,14 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2923,8 +4179,14 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2949,8 +4211,14 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2975,8 +4243,14 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2999,6 +4273,76 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
     </row>
@@ -3009,13 +4353,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1">
         <v>0</v>
       </c>
@@ -3026,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="D1">
-        <v>0.9999991122626025</v>
+        <v>0</v>
       </c>
       <c r="E1">
         <v>0</v>
@@ -3040,8 +4384,14 @@
       <c r="H1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3066,8 +4416,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3092,8 +4448,14 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>0</v>
       </c>
@@ -3118,8 +4480,14 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>0</v>
       </c>
@@ -3144,8 +4512,14 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>0</v>
       </c>
@@ -3170,8 +4544,14 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>0</v>
       </c>
@@ -3196,8 +4576,14 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>0</v>
       </c>
@@ -3220,6 +4606,76 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
     </row>
@@ -3230,13 +4686,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1">
         <v>0</v>
       </c>
@@ -3259,10 +4715,16 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3287,8 +4749,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3313,8 +4781,14 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>0</v>
       </c>
@@ -3339,8 +4813,14 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>0</v>
       </c>
@@ -3365,8 +4845,14 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>0</v>
       </c>
@@ -3391,8 +4877,14 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>0</v>
       </c>
@@ -3417,8 +4909,14 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>0</v>
       </c>
@@ -3441,6 +4939,76 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
     </row>
@@ -3451,13 +5019,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1">
         <v>0</v>
       </c>
@@ -3468,7 +5036,7 @@
         <v>0</v>
       </c>
       <c r="D1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1">
         <v>0</v>
@@ -3482,8 +5050,14 @@
       <c r="H1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3508,8 +5082,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3534,8 +5114,14 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>0</v>
       </c>
@@ -3560,8 +5146,14 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>0</v>
       </c>
@@ -3586,8 +5178,14 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>0</v>
       </c>
@@ -3612,8 +5210,14 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>0</v>
       </c>
@@ -3638,8 +5242,14 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>0</v>
       </c>
@@ -3662,6 +5272,76 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
     </row>
@@ -3672,13 +5352,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1">
         <v>0</v>
       </c>
@@ -3703,8 +5383,14 @@
       <c r="H1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3729,8 +5415,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3755,8 +5447,14 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>0</v>
       </c>
@@ -3781,8 +5479,14 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>0</v>
       </c>
@@ -3807,8 +5511,14 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>0</v>
       </c>
@@ -3833,8 +5543,14 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>0</v>
       </c>
@@ -3859,8 +5575,14 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>0</v>
       </c>
@@ -3883,6 +5605,76 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
     </row>
@@ -3893,13 +5685,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1">
         <v>0</v>
       </c>
@@ -3913,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="E1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1">
         <v>0</v>
@@ -3924,8 +5716,14 @@
       <c r="H1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3950,8 +5748,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3976,8 +5780,14 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>0</v>
       </c>
@@ -4002,8 +5812,14 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>0</v>
       </c>
@@ -4028,8 +5844,14 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>0</v>
       </c>
@@ -4054,8 +5876,14 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>0</v>
       </c>
@@ -4080,8 +5908,14 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>0</v>
       </c>
@@ -4104,6 +5938,76 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
     </row>
@@ -4114,13 +6018,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1">
         <v>0</v>
       </c>
@@ -4140,13 +6044,19 @@
         <v>0</v>
       </c>
       <c r="G1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4171,8 +6081,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>0</v>
       </c>
@@ -4197,8 +6113,14 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>0</v>
       </c>
@@ -4223,8 +6145,14 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>0</v>
       </c>
@@ -4249,8 +6177,14 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>0</v>
       </c>
@@ -4275,8 +6209,14 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>0</v>
       </c>
@@ -4301,8 +6241,14 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>0</v>
       </c>
@@ -4325,6 +6271,76 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
     </row>

--- a/assets/generated/model3/DeliverySequence.xlsx
+++ b/assets/generated/model3/DeliverySequence.xlsx
@@ -701,10 +701,10 @@
         <v>0</v>
       </c>
       <c r="F1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -989,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="F1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2167,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>

--- a/assets/generated/model3/DeliverySequence.xlsx
+++ b/assets/generated/model3/DeliverySequence.xlsx
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="F1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="F1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1">
         <v>0</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2167,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -2184,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>

--- a/assets/generated/model3/DeliverySequence.xlsx
+++ b/assets/generated/model3/DeliverySequence.xlsx
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -849,16 +849,16 @@
         <v>0</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="F1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1">
         <v>0</v>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="F1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2167,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>

--- a/assets/generated/model3/DeliverySequence.xlsx
+++ b/assets/generated/model3/DeliverySequence.xlsx
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="F1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10">

--- a/assets/generated/model3/DeliverySequence.xlsx
+++ b/assets/generated/model3/DeliverySequence.xlsx
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="F1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">

--- a/assets/generated/model3/DeliverySequence.xlsx
+++ b/assets/generated/model3/DeliverySequence.xlsx
@@ -692,16 +692,16 @@
         <v>0</v>
       </c>
       <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
         <v>1</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
       </c>
       <c r="G1">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
